--- a/src/Input_Files/characters/scandanavia_characters.xlsx
+++ b/src/Input_Files/characters/scandanavia_characters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\scandanavia_export_maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA406515-3B87-47F9-9D52-FE323DDD66B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A16BB3E-122D-4512-8617-840BDBD54B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
+    <workbookView xWindow="-22470" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>RGB</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>(223, 240, 5)</t>
+  </si>
+  <si>
+    <t>Primary Title</t>
+  </si>
+  <si>
+    <t>realm_succession_laws</t>
   </si>
 </sst>
 </file>
@@ -257,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -384,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -680,42 +686,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C5842-DB98-492E-993D-80D39F62EB82}">
-  <dimension ref="A1:BD162"/>
+  <dimension ref="A1:BF162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -740,152 +747,158 @@
       <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -896,121 +909,121 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1018,7 +1031,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1026,7 +1039,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1034,7 +1047,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1042,7 +1055,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1050,7 +1063,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1058,7 +1071,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1066,7 +1079,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1074,7 +1087,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1082,7 +1095,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1090,7 +1103,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1098,7 +1111,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1106,7 +1119,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1114,7 +1127,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1122,7 +1135,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1130,7 +1143,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1138,7 +1151,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1146,7 +1159,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1154,7 +1167,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1162,7 +1175,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1170,7 +1183,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1178,7 +1191,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1186,7 +1199,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1194,7 +1207,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1202,7 +1215,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1210,7 +1223,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1218,7 +1231,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1226,7 +1239,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1234,16 +1247,16 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1253,7 +1266,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1261,7 +1274,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1269,7 +1282,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1278,19 +1291,19 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="K57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1299,9 +1312,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1311,7 +1324,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1321,7 +1334,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1330,9 +1343,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1340,9 +1353,9 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1351,9 +1364,9 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1363,7 +1376,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1372,9 +1385,9 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1383,9 +1396,9 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1394,9 +1407,9 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1406,7 +1419,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1414,9 +1427,9 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1425,7 +1438,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1434,9 +1447,9 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1445,7 +1458,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1455,7 +1468,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1463,10 +1476,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L75" s="1"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1476,7 +1489,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1484,9 +1497,9 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1496,7 +1509,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1506,7 +1519,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1516,7 +1529,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1526,7 +1539,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1535,9 +1548,9 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1546,7 +1559,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1554,9 +1567,9 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1564,16 +1577,16 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1582,9 +1595,9 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1594,7 +1607,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1604,7 +1617,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1614,7 +1627,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1623,10 +1636,10 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="J91" s="1"/>
       <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1636,7 +1649,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -1644,9 +1657,9 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1656,7 +1669,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1666,7 +1679,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1676,7 +1689,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1685,10 +1698,10 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="L97" s="1"/>
       <c r="N97" s="1"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1697,9 +1710,9 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1708,9 +1721,9 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1719,9 +1732,9 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1731,7 +1744,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1740,10 +1753,10 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1753,7 +1766,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1762,9 +1775,9 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1773,10 +1786,10 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="J105" s="1"/>
       <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1786,7 +1799,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1796,7 +1809,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1806,7 +1819,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1816,7 +1829,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1826,7 +1839,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1835,9 +1848,9 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -1846,7 +1859,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1856,19 +1869,19 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1877,9 +1890,9 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1888,9 +1901,9 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1899,10 +1912,10 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -1911,7 +1924,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1920,9 +1933,9 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1931,9 +1944,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -1942,7 +1955,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1952,7 +1965,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1962,7 +1975,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1972,7 +1985,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1982,7 +1995,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1992,7 +2005,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2002,7 +2015,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2012,7 +2025,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2022,7 +2035,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2032,7 +2045,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2041,7 +2054,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2051,7 +2064,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2061,7 +2074,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -2070,7 +2083,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2080,7 +2093,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2089,9 +2102,9 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="M137" s="1"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2101,7 +2114,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2111,7 +2124,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2120,9 +2133,9 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2132,7 +2145,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2142,7 +2155,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2152,7 +2165,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2162,7 +2175,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2172,7 +2185,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2182,7 +2195,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2192,7 +2205,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2202,7 +2215,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2212,7 +2225,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2222,7 +2235,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2232,8 +2245,8 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2243,7 +2256,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2253,7 +2266,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2263,7 +2276,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2273,7 +2286,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2283,7 +2296,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2293,7 +2306,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2303,7 +2316,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2313,7 +2326,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2323,7 +2336,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
